--- a/data_analysis/sampled_policies/Pilot Sample.xlsx
+++ b/data_analysis/sampled_policies/Pilot Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpatr\PycharmProjects\Pac-paper\data_analysis\sampled_policies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD91DC4-CB06-40F8-87AD-6412FA7FAAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACD2F8-EDE7-41CB-ABC6-53A7BDA38970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14040" yWindow="-16065" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="607">
   <si>
     <t>The policy addresses security governance for Kubernetes workloads regarding service account token management.</t>
   </si>
@@ -4465,12 +4465,6 @@
   </si>
   <si>
     <t>Sub-purposes</t>
-  </si>
-  <si>
-    <t>taxonomy category</t>
-  </si>
-  <si>
-    <t>taxonomy sub-category</t>
   </si>
   <si>
     <t>Policy Implemented</t>
@@ -10100,6 +10094,15 @@
   <si>
     <t xml:space="preserve">Operational compliance </t>
   </si>
+  <si>
+    <t>taxonomy category llm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxonomy </t>
+  </si>
+  <si>
+    <t>taxonomy sub-category llm</t>
+  </si>
 </sst>
 </file>
 
@@ -10476,8 +10479,8 @@
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10494,34 +10497,34 @@
         <v>381</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10550,7 +10553,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -10559,7 +10562,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10594,7 +10597,7 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10623,7 +10626,7 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -10632,7 +10635,7 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10661,7 +10664,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -10670,7 +10673,7 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -10705,7 +10708,7 @@
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10734,7 +10737,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
@@ -10743,7 +10746,7 @@
         <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10763,7 +10766,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -10772,7 +10775,7 @@
         <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -10781,7 +10784,7 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10795,13 +10798,13 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -10819,7 +10822,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -10833,13 +10836,13 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
@@ -10857,7 +10860,7 @@
         <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10877,7 +10880,7 @@
         <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G11" t="s">
         <v>72</v>
@@ -10886,7 +10889,7 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -10895,7 +10898,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10909,7 +10912,7 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
@@ -10924,7 +10927,7 @@
         <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J12" t="s">
         <v>82</v>
@@ -10933,7 +10936,7 @@
         <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10968,7 +10971,7 @@
         <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -11006,7 +11009,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -11020,13 +11023,13 @@
         <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s">
         <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G15" t="s">
         <v>103</v>
@@ -11035,7 +11038,7 @@
         <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
@@ -11044,7 +11047,7 @@
         <v>106</v>
       </c>
       <c r="L15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -11073,7 +11076,7 @@
         <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J16" t="s">
         <v>111</v>
@@ -11082,7 +11085,7 @@
         <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -11111,7 +11114,7 @@
         <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J17" t="s">
         <v>119</v>
@@ -11120,7 +11123,7 @@
         <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -11134,13 +11137,13 @@
         <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E18" t="s">
         <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G18" t="s">
         <v>125</v>
@@ -11149,7 +11152,7 @@
         <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J18" t="s">
         <v>127</v>
@@ -11158,7 +11161,7 @@
         <v>128</v>
       </c>
       <c r="L18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -11172,13 +11175,13 @@
         <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E19" t="s">
         <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G19" t="s">
         <v>133</v>
@@ -11187,7 +11190,7 @@
         <v>134</v>
       </c>
       <c r="I19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J19" t="s">
         <v>135</v>
@@ -11196,7 +11199,7 @@
         <v>136</v>
       </c>
       <c r="L19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -11210,13 +11213,13 @@
         <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E20" t="s">
         <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G20" t="s">
         <v>140</v>
@@ -11225,7 +11228,7 @@
         <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J20" t="s">
         <v>142</v>
@@ -11234,7 +11237,7 @@
         <v>143</v>
       </c>
       <c r="L20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -11263,7 +11266,7 @@
         <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J21" t="s">
         <v>149</v>
@@ -11272,7 +11275,7 @@
         <v>150</v>
       </c>
       <c r="L21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -11301,7 +11304,7 @@
         <v>155</v>
       </c>
       <c r="I22" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J22" t="s">
         <v>156</v>
@@ -11310,7 +11313,7 @@
         <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -11339,7 +11342,7 @@
         <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J23" t="s">
         <v>163</v>
@@ -11348,7 +11351,7 @@
         <v>164</v>
       </c>
       <c r="L23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -11377,7 +11380,7 @@
         <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J24" t="s">
         <v>170</v>
@@ -11386,7 +11389,7 @@
         <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -11400,7 +11403,7 @@
         <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E25" t="s">
         <v>175</v>
@@ -11421,7 +11424,7 @@
         <v>179</v>
       </c>
       <c r="L25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -11450,7 +11453,7 @@
         <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J26" t="s">
         <v>185</v>
@@ -11459,7 +11462,7 @@
         <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11473,13 +11476,13 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
         <v>189</v>
@@ -11497,7 +11500,7 @@
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11517,7 +11520,7 @@
         <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G28" t="s">
         <v>196</v>
@@ -11526,7 +11529,7 @@
         <v>197</v>
       </c>
       <c r="I28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J28" t="s">
         <v>198</v>
@@ -11535,7 +11538,7 @@
         <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11564,7 +11567,7 @@
         <v>205</v>
       </c>
       <c r="I29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J29" t="s">
         <v>206</v>
@@ -11573,7 +11576,7 @@
         <v>207</v>
       </c>
       <c r="L29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -11608,7 +11611,7 @@
         <v>214</v>
       </c>
       <c r="L30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11622,7 +11625,7 @@
         <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E31" t="s">
         <v>218</v>
@@ -11640,7 +11643,7 @@
         <v>222</v>
       </c>
       <c r="L31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11654,7 +11657,7 @@
         <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E32" t="s">
         <v>226</v>
@@ -11666,7 +11669,7 @@
         <v>228</v>
       </c>
       <c r="I32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J32" t="s">
         <v>229</v>
@@ -11675,7 +11678,7 @@
         <v>230</v>
       </c>
       <c r="L32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11713,7 +11716,7 @@
         <v>237</v>
       </c>
       <c r="L33" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -11748,7 +11751,7 @@
         <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11777,7 +11780,7 @@
         <v>248</v>
       </c>
       <c r="I35" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J35" t="s">
         <v>249</v>
@@ -11786,7 +11789,7 @@
         <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11800,13 +11803,13 @@
         <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E36" t="s">
         <v>254</v>
       </c>
       <c r="F36" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G36" t="s">
         <v>255</v>
@@ -11824,7 +11827,7 @@
         <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11859,7 +11862,7 @@
         <v>264</v>
       </c>
       <c r="L37" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11879,7 +11882,7 @@
         <v>267</v>
       </c>
       <c r="F38" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G38" t="s">
         <v>268</v>
@@ -11888,7 +11891,7 @@
         <v>269</v>
       </c>
       <c r="I38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J38" t="s">
         <v>270</v>
@@ -11897,7 +11900,7 @@
         <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11911,7 +11914,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E39" t="s">
         <v>274</v>
@@ -11923,7 +11926,7 @@
         <v>276</v>
       </c>
       <c r="I39" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J39" t="s">
         <v>277</v>
@@ -11932,7 +11935,7 @@
         <v>278</v>
       </c>
       <c r="L39" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11967,7 +11970,7 @@
         <v>285</v>
       </c>
       <c r="L40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11996,7 +11999,7 @@
         <v>290</v>
       </c>
       <c r="I41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J41" t="s">
         <v>291</v>
@@ -12005,7 +12008,7 @@
         <v>292</v>
       </c>
       <c r="L41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -12040,7 +12043,7 @@
         <v>300</v>
       </c>
       <c r="L42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -12054,7 +12057,7 @@
         <v>303</v>
       </c>
       <c r="D43" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E43" t="s">
         <v>304</v>
@@ -12075,7 +12078,7 @@
         <v>308</v>
       </c>
       <c r="L43" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -12089,13 +12092,13 @@
         <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E44" t="s">
         <v>311</v>
       </c>
       <c r="F44" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G44" t="s">
         <v>312</v>
@@ -12104,7 +12107,7 @@
         <v>313</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J44" t="s">
         <v>314</v>
@@ -12113,7 +12116,7 @@
         <v>315</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -12127,13 +12130,13 @@
         <v>318</v>
       </c>
       <c r="D45" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E45" t="s">
         <v>319</v>
       </c>
       <c r="F45" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G45" t="s">
         <v>320</v>
@@ -12142,7 +12145,7 @@
         <v>321</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
         <v>322</v>
@@ -12151,7 +12154,7 @@
         <v>323</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -12186,7 +12189,7 @@
         <v>330</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -12215,7 +12218,7 @@
         <v>336</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
         <v>337</v>
@@ -12224,7 +12227,7 @@
         <v>338</v>
       </c>
       <c r="L47" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -12259,7 +12262,7 @@
         <v>345</v>
       </c>
       <c r="L48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -12273,7 +12276,7 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E49" t="s">
         <v>348</v>
@@ -12297,7 +12300,7 @@
         <v>352</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -12317,7 +12320,7 @@
         <v>355</v>
       </c>
       <c r="F50" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G50" t="s">
         <v>356</v>
@@ -12326,7 +12329,7 @@
         <v>357</v>
       </c>
       <c r="I50" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J50" t="s">
         <v>358</v>
@@ -12335,7 +12338,7 @@
         <v>359</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -12349,13 +12352,13 @@
         <v>362</v>
       </c>
       <c r="D51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E51" t="s">
         <v>363</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G51" t="s">
         <v>364</v>
@@ -12364,7 +12367,7 @@
         <v>365</v>
       </c>
       <c r="I51" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J51" t="s">
         <v>366</v>
@@ -12373,7 +12376,7 @@
         <v>367</v>
       </c>
       <c r="L51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -12387,7 +12390,7 @@
         <v>123</v>
       </c>
       <c r="D52" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E52" t="s">
         <v>370</v>
@@ -12408,18 +12411,18 @@
         <v>374</v>
       </c>
       <c r="L52" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" t="s">
         <v>407</v>
-      </c>
-      <c r="B53" t="s">
-        <v>408</v>
-      </c>
-      <c r="C53" t="s">
-        <v>409</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -12431,7 +12434,7 @@
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H53" t="s">
         <v>190</v>
@@ -12440,21 +12443,21 @@
         <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
         <v>376</v>
@@ -12469,30 +12472,30 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I54" t="s">
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
@@ -12507,7 +12510,7 @@
         <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H55" t="s">
         <v>190</v>
@@ -12516,59 +12519,59 @@
         <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>422</v>
+      </c>
+      <c r="B56" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" t="s">
         <v>424</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
+        <v>603</v>
+      </c>
+      <c r="E56" t="s">
         <v>425</v>
       </c>
-      <c r="C56" t="s">
+      <c r="F56" t="s">
+        <v>602</v>
+      </c>
+      <c r="G56" t="s">
         <v>426</v>
       </c>
-      <c r="D56" t="s">
-        <v>605</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>427</v>
-      </c>
-      <c r="F56" t="s">
-        <v>604</v>
-      </c>
-      <c r="G56" t="s">
-        <v>428</v>
-      </c>
-      <c r="H56" t="s">
-        <v>429</v>
       </c>
       <c r="I56" t="s">
         <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K56" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L56" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
         <v>123</v>
@@ -12583,83 +12586,83 @@
         <v>377</v>
       </c>
       <c r="G57" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H57" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I57" t="s">
         <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L57" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" t="s">
         <v>438</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>390</v>
+      </c>
+      <c r="E58" t="s">
         <v>439</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F58" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" t="s">
         <v>440</v>
       </c>
-      <c r="D58" t="s">
-        <v>392</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>441</v>
-      </c>
-      <c r="F58" t="s">
-        <v>393</v>
-      </c>
-      <c r="G58" t="s">
-        <v>442</v>
-      </c>
-      <c r="H58" t="s">
-        <v>443</v>
       </c>
       <c r="I58" t="s">
         <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K58" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C59" t="s">
         <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H59" t="s">
         <v>58</v>
@@ -12668,36 +12671,36 @@
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E60" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F60" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H60" t="s">
         <v>190</v>
@@ -12706,21 +12709,21 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -12735,42 +12738,42 @@
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I61" t="s">
         <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K61" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C62" t="s">
         <v>375</v>
       </c>
       <c r="D62" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E62" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G62" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H62" t="s">
         <v>58</v>
@@ -12779,24 +12782,24 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -12808,185 +12811,185 @@
         <v>34</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>476</v>
+      </c>
+      <c r="B64" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" t="s">
         <v>478</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64" t="s">
         <v>479</v>
       </c>
-      <c r="C64" t="s">
+      <c r="F64" t="s">
+        <v>602</v>
+      </c>
+      <c r="G64" t="s">
         <v>480</v>
       </c>
-      <c r="D64" t="s">
-        <v>605</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>481</v>
       </c>
-      <c r="F64" t="s">
-        <v>604</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
+        <v>386</v>
+      </c>
+      <c r="J64" t="s">
         <v>482</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>483</v>
       </c>
-      <c r="I64" t="s">
-        <v>388</v>
-      </c>
-      <c r="J64" t="s">
-        <v>484</v>
-      </c>
-      <c r="K64" t="s">
-        <v>485</v>
-      </c>
       <c r="L64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
       </c>
       <c r="E65" t="s">
+        <v>486</v>
+      </c>
+      <c r="F65" t="s">
+        <v>400</v>
+      </c>
+      <c r="G65" t="s">
+        <v>487</v>
+      </c>
+      <c r="H65" t="s">
         <v>488</v>
       </c>
-      <c r="F65" t="s">
-        <v>402</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
+        <v>386</v>
+      </c>
+      <c r="J65" t="s">
         <v>489</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>490</v>
       </c>
-      <c r="I65" t="s">
-        <v>388</v>
-      </c>
-      <c r="J65" t="s">
-        <v>491</v>
-      </c>
-      <c r="K65" t="s">
-        <v>492</v>
-      </c>
       <c r="L65" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>491</v>
+      </c>
+      <c r="B66" t="s">
+        <v>492</v>
+      </c>
+      <c r="C66" t="s">
         <v>493</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>601</v>
+      </c>
+      <c r="E66" t="s">
         <v>494</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" t="s">
         <v>495</v>
       </c>
-      <c r="D66" t="s">
-        <v>603</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>496</v>
       </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
+        <v>399</v>
+      </c>
+      <c r="J66" t="s">
         <v>497</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>498</v>
       </c>
-      <c r="I66" t="s">
-        <v>401</v>
-      </c>
-      <c r="J66" t="s">
-        <v>499</v>
-      </c>
-      <c r="K66" t="s">
-        <v>500</v>
-      </c>
       <c r="L66" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>499</v>
+      </c>
+      <c r="B67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C67" t="s">
         <v>501</v>
       </c>
-      <c r="B67" t="s">
-        <v>502</v>
-      </c>
-      <c r="C67" t="s">
-        <v>503</v>
-      </c>
       <c r="D67" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E67" t="s">
         <v>115</v>
       </c>
       <c r="F67" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G67" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H67" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I67" t="s">
         <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K67" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L67" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B68" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C68" t="s">
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E68" t="s">
         <v>375</v>
@@ -12995,416 +12998,416 @@
         <v>375</v>
       </c>
       <c r="G68" t="s">
+        <v>508</v>
+      </c>
+      <c r="H68" t="s">
+        <v>404</v>
+      </c>
+      <c r="I68" t="s">
+        <v>386</v>
+      </c>
+      <c r="J68" t="s">
+        <v>509</v>
+      </c>
+      <c r="K68" t="s">
         <v>510</v>
       </c>
-      <c r="H68" t="s">
-        <v>406</v>
-      </c>
-      <c r="I68" t="s">
-        <v>388</v>
-      </c>
-      <c r="J68" t="s">
-        <v>511</v>
-      </c>
-      <c r="K68" t="s">
-        <v>512</v>
-      </c>
       <c r="L68" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>511</v>
+      </c>
+      <c r="B69" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" t="s">
         <v>513</v>
       </c>
-      <c r="B69" t="s">
-        <v>514</v>
-      </c>
-      <c r="C69" t="s">
-        <v>515</v>
-      </c>
       <c r="D69" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E69" t="s">
         <v>115</v>
       </c>
       <c r="F69" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G69" t="s">
+        <v>514</v>
+      </c>
+      <c r="H69" t="s">
+        <v>503</v>
+      </c>
+      <c r="I69" t="s">
+        <v>386</v>
+      </c>
+      <c r="J69" t="s">
+        <v>515</v>
+      </c>
+      <c r="K69" t="s">
         <v>516</v>
       </c>
-      <c r="H69" t="s">
-        <v>505</v>
-      </c>
-      <c r="I69" t="s">
-        <v>388</v>
-      </c>
-      <c r="J69" t="s">
-        <v>517</v>
-      </c>
-      <c r="K69" t="s">
-        <v>518</v>
-      </c>
       <c r="L69" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>517</v>
+      </c>
+      <c r="B70" t="s">
+        <v>518</v>
+      </c>
+      <c r="C70" t="s">
         <v>519</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>603</v>
+      </c>
+      <c r="E70" t="s">
         <v>520</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
+        <v>602</v>
+      </c>
+      <c r="G70" t="s">
         <v>521</v>
       </c>
-      <c r="D70" t="s">
-        <v>605</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>522</v>
       </c>
-      <c r="F70" t="s">
-        <v>604</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
+        <v>386</v>
+      </c>
+      <c r="J70" t="s">
         <v>523</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>524</v>
       </c>
-      <c r="I70" t="s">
-        <v>388</v>
-      </c>
-      <c r="J70" t="s">
-        <v>525</v>
-      </c>
-      <c r="K70" t="s">
-        <v>526</v>
-      </c>
       <c r="L70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>525</v>
+      </c>
+      <c r="B71" t="s">
+        <v>526</v>
+      </c>
+      <c r="C71" t="s">
         <v>527</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>603</v>
+      </c>
+      <c r="E71" t="s">
         <v>528</v>
       </c>
-      <c r="C71" t="s">
+      <c r="F71" t="s">
+        <v>602</v>
+      </c>
+      <c r="G71" t="s">
         <v>529</v>
       </c>
-      <c r="D71" t="s">
-        <v>605</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>530</v>
       </c>
-      <c r="F71" t="s">
-        <v>604</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
+        <v>386</v>
+      </c>
+      <c r="J71" t="s">
         <v>531</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K71" t="s">
         <v>532</v>
       </c>
-      <c r="I71" t="s">
-        <v>388</v>
-      </c>
-      <c r="J71" t="s">
-        <v>533</v>
-      </c>
-      <c r="K71" t="s">
-        <v>534</v>
-      </c>
       <c r="L71" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C72" t="s">
         <v>319</v>
       </c>
       <c r="D72" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E72" t="s">
+        <v>535</v>
+      </c>
+      <c r="G72" t="s">
+        <v>536</v>
+      </c>
+      <c r="H72" t="s">
         <v>537</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
+        <v>386</v>
+      </c>
+      <c r="J72" t="s">
         <v>538</v>
       </c>
-      <c r="H72" t="s">
+      <c r="K72" t="s">
         <v>539</v>
       </c>
-      <c r="I72" t="s">
-        <v>388</v>
-      </c>
-      <c r="J72" t="s">
-        <v>540</v>
-      </c>
-      <c r="K72" t="s">
-        <v>541</v>
-      </c>
       <c r="L72" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>540</v>
+      </c>
+      <c r="B73" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73" t="s">
         <v>542</v>
       </c>
-      <c r="B73" t="s">
-        <v>543</v>
-      </c>
-      <c r="C73" t="s">
-        <v>544</v>
-      </c>
       <c r="D73" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E73" t="s">
         <v>379</v>
       </c>
       <c r="F73" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G73" t="s">
+        <v>543</v>
+      </c>
+      <c r="H73" t="s">
+        <v>544</v>
+      </c>
+      <c r="I73" t="s">
+        <v>593</v>
+      </c>
+      <c r="J73" t="s">
         <v>545</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I73" t="s">
-        <v>595</v>
-      </c>
-      <c r="J73" t="s">
-        <v>547</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="L73" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B74" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D74" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E74" t="s">
         <v>276</v>
       </c>
       <c r="G74" t="s">
+        <v>549</v>
+      </c>
+      <c r="H74" t="s">
+        <v>550</v>
+      </c>
+      <c r="I74" t="s">
+        <v>399</v>
+      </c>
+      <c r="J74" t="s">
         <v>551</v>
       </c>
-      <c r="H74" t="s">
+      <c r="K74" t="s">
         <v>552</v>
       </c>
-      <c r="I74" t="s">
-        <v>401</v>
-      </c>
-      <c r="J74" t="s">
-        <v>553</v>
-      </c>
-      <c r="K74" t="s">
-        <v>554</v>
-      </c>
       <c r="L74" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B75" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C75" t="s">
         <v>375</v>
       </c>
       <c r="D75" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E75" t="s">
+        <v>555</v>
+      </c>
+      <c r="G75" t="s">
+        <v>556</v>
+      </c>
+      <c r="H75" t="s">
         <v>557</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
+        <v>386</v>
+      </c>
+      <c r="J75" t="s">
         <v>558</v>
       </c>
-      <c r="H75" t="s">
+      <c r="K75" t="s">
         <v>559</v>
       </c>
-      <c r="I75" t="s">
-        <v>388</v>
-      </c>
-      <c r="J75" t="s">
-        <v>560</v>
-      </c>
-      <c r="K75" t="s">
-        <v>561</v>
-      </c>
       <c r="L75" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>560</v>
+      </c>
+      <c r="B76" t="s">
+        <v>561</v>
+      </c>
+      <c r="C76" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76" t="s">
+        <v>601</v>
+      </c>
+      <c r="E76" t="s">
         <v>562</v>
       </c>
-      <c r="B76" t="s">
+      <c r="G76" t="s">
         <v>563</v>
       </c>
-      <c r="C76" t="s">
-        <v>495</v>
-      </c>
-      <c r="D76" t="s">
-        <v>603</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>564</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
+        <v>399</v>
+      </c>
+      <c r="J76" t="s">
         <v>565</v>
       </c>
-      <c r="H76" t="s">
+      <c r="K76" t="s">
         <v>566</v>
       </c>
-      <c r="I76" t="s">
-        <v>401</v>
-      </c>
-      <c r="J76" t="s">
-        <v>567</v>
-      </c>
-      <c r="K76" t="s">
-        <v>568</v>
-      </c>
       <c r="L76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>567</v>
+      </c>
+      <c r="B77" t="s">
+        <v>568</v>
+      </c>
+      <c r="C77" t="s">
+        <v>501</v>
+      </c>
+      <c r="D77" t="s">
+        <v>603</v>
+      </c>
+      <c r="E77" t="s">
         <v>569</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
         <v>570</v>
       </c>
-      <c r="C77" t="s">
+      <c r="H77" t="s">
         <v>503</v>
-      </c>
-      <c r="D77" t="s">
-        <v>605</v>
-      </c>
-      <c r="E77" t="s">
-        <v>571</v>
-      </c>
-      <c r="F77" t="s">
-        <v>604</v>
-      </c>
-      <c r="G77" t="s">
-        <v>572</v>
-      </c>
-      <c r="H77" t="s">
-        <v>505</v>
       </c>
       <c r="I77" t="s">
         <v>58</v>
       </c>
       <c r="J77" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K77" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L77" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>575</v>
+      </c>
+      <c r="B78" t="s">
+        <v>576</v>
+      </c>
+      <c r="C78" t="s">
         <v>577</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>601</v>
+      </c>
+      <c r="E78" t="s">
         <v>578</v>
       </c>
-      <c r="C78" t="s">
+      <c r="G78" t="s">
         <v>579</v>
       </c>
-      <c r="D78" t="s">
-        <v>603</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>580</v>
       </c>
-      <c r="G78" t="s">
+      <c r="J78" t="s">
         <v>581</v>
       </c>
-      <c r="H78" t="s">
-        <v>582</v>
-      </c>
-      <c r="J78" t="s">
-        <v>583</v>
-      </c>
       <c r="K78" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>582</v>
+      </c>
+      <c r="B79" t="s">
+        <v>583</v>
+      </c>
+      <c r="C79" t="s">
+        <v>478</v>
+      </c>
+      <c r="D79" t="s">
+        <v>601</v>
+      </c>
+      <c r="E79" t="s">
         <v>584</v>
       </c>
-      <c r="B79" t="s">
+      <c r="G79" t="s">
         <v>585</v>
       </c>
-      <c r="C79" t="s">
-        <v>480</v>
-      </c>
-      <c r="D79" t="s">
-        <v>603</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>586</v>
       </c>
-      <c r="G79" t="s">
+      <c r="J79" t="s">
         <v>587</v>
       </c>
-      <c r="H79" t="s">
-        <v>588</v>
-      </c>
-      <c r="J79" t="s">
-        <v>589</v>
-      </c>
       <c r="K79" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L79" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -13431,25 +13434,25 @@
         <v>381</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -13470,7 +13473,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -13524,7 +13527,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -13553,7 +13556,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -13582,7 +13585,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H6" t="s">
         <v>37</v>
@@ -13611,7 +13614,7 @@
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -13631,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -13657,10 +13660,10 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -13686,10 +13689,10 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -13718,7 +13721,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
@@ -13727,7 +13730,7 @@
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H11" t="s">
         <v>74</v>
@@ -13744,7 +13747,7 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
         <v>78</v>
@@ -13756,7 +13759,7 @@
         <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -13799,10 +13802,10 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
@@ -13828,10 +13831,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
         <v>103</v>
@@ -13883,10 +13886,10 @@
         <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s">
         <v>117</v>
@@ -13895,7 +13898,7 @@
         <v>118</v>
       </c>
       <c r="G17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H17" t="s">
         <v>119</v>
@@ -13912,10 +13915,10 @@
         <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E18" t="s">
         <v>125</v>
@@ -13924,7 +13927,7 @@
         <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H18" t="s">
         <v>127</v>
@@ -13941,10 +13944,10 @@
         <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E19" t="s">
         <v>133</v>
@@ -13953,7 +13956,7 @@
         <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H19" t="s">
         <v>135</v>
@@ -13970,10 +13973,10 @@
         <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E20" t="s">
         <v>140</v>
@@ -13982,7 +13985,7 @@
         <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H20" t="s">
         <v>142</v>
@@ -14060,7 +14063,7 @@
         <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E23" t="s">
         <v>161</v>
@@ -14156,10 +14159,10 @@
         <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E27" t="s">
         <v>189</v>
@@ -14188,7 +14191,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E28" t="s">
         <v>196</v>
@@ -14197,7 +14200,7 @@
         <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H28" t="s">
         <v>198</v>
@@ -14217,7 +14220,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E29" t="s">
         <v>204</v>
@@ -14226,7 +14229,7 @@
         <v>205</v>
       </c>
       <c r="G29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H29" t="s">
         <v>206</v>
@@ -14297,7 +14300,7 @@
         <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H32" t="s">
         <v>229</v>
@@ -14343,7 +14346,7 @@
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E34" t="s">
         <v>241</v>
@@ -14395,10 +14398,10 @@
         <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E36" t="s">
         <v>255</v>
@@ -14459,7 +14462,7 @@
         <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H38" t="s">
         <v>270</v>
@@ -14532,7 +14535,7 @@
         <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H41" t="s">
         <v>291</v>
@@ -14573,7 +14576,7 @@
         <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D43" t="s">
         <v>303</v>
@@ -14599,10 +14602,10 @@
         <v>310</v>
       </c>
       <c r="C44" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D44" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E44" t="s">
         <v>312</v>
@@ -14611,7 +14614,7 @@
         <v>313</v>
       </c>
       <c r="G44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H44" t="s">
         <v>314</v>
@@ -14628,10 +14631,10 @@
         <v>317</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D45" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E45" t="s">
         <v>320</v>
@@ -14640,7 +14643,7 @@
         <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
         <v>322</v>
@@ -14695,7 +14698,7 @@
         <v>336</v>
       </c>
       <c r="G47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H47" t="s">
         <v>337</v>
@@ -14738,10 +14741,10 @@
         <v>347</v>
       </c>
       <c r="C49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E49" t="s">
         <v>349</v>
@@ -14770,7 +14773,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E50" t="s">
         <v>356</v>
@@ -14793,10 +14796,10 @@
         <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D51" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E51" t="s">
         <v>364</v>
@@ -14819,10 +14822,10 @@
         <v>369</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>371</v>
@@ -14841,10 +14844,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -14853,7 +14856,7 @@
         <v>375</v>
       </c>
       <c r="E53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
         <v>190</v>
@@ -14862,18 +14865,18 @@
         <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -14882,27 +14885,27 @@
         <v>375</v>
       </c>
       <c r="E54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
       </c>
       <c r="H54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -14911,7 +14914,7 @@
         <v>375</v>
       </c>
       <c r="E55" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F55" t="s">
         <v>190</v>
@@ -14920,47 +14923,47 @@
         <v>58</v>
       </c>
       <c r="H55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D56" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G56" t="s">
         <v>58</v>
       </c>
       <c r="H56" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I56" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -14969,65 +14972,65 @@
         <v>377</v>
       </c>
       <c r="E57" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F57" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G57" t="s">
         <v>58</v>
       </c>
       <c r="H57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C58" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D58" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E58" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
         <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I58" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C59" t="s">
+        <v>390</v>
+      </c>
+      <c r="D59" t="s">
+        <v>391</v>
+      </c>
+      <c r="E59" t="s">
         <v>447</v>
-      </c>
-      <c r="C59" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" t="s">
-        <v>393</v>
-      </c>
-      <c r="E59" t="s">
-        <v>449</v>
       </c>
       <c r="F59" t="s">
         <v>58</v>
@@ -15036,27 +15039,27 @@
         <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I59" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s">
+        <v>451</v>
+      </c>
+      <c r="C60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" t="s">
         <v>453</v>
-      </c>
-      <c r="C60" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" t="s">
-        <v>393</v>
-      </c>
-      <c r="E60" t="s">
-        <v>455</v>
       </c>
       <c r="F60" t="s">
         <v>190</v>
@@ -15065,18 +15068,18 @@
         <v>58</v>
       </c>
       <c r="H60" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -15085,33 +15088,33 @@
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G61" t="s">
         <v>58</v>
       </c>
       <c r="H61" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I61" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s">
+        <v>463</v>
+      </c>
+      <c r="C62" t="s">
+        <v>574</v>
+      </c>
+      <c r="E62" t="s">
         <v>465</v>
-      </c>
-      <c r="C62" t="s">
-        <v>576</v>
-      </c>
-      <c r="E62" t="s">
-        <v>467</v>
       </c>
       <c r="F62" t="s">
         <v>58</v>
@@ -15120,18 +15123,18 @@
         <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>2</v>
@@ -15140,138 +15143,138 @@
         <v>375</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C64" t="s">
         <v>225</v>
       </c>
       <c r="E64" t="s">
+        <v>480</v>
+      </c>
+      <c r="F64" t="s">
+        <v>481</v>
+      </c>
+      <c r="G64" t="s">
+        <v>386</v>
+      </c>
+      <c r="H64" t="s">
         <v>482</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>483</v>
-      </c>
-      <c r="G64" t="s">
-        <v>388</v>
-      </c>
-      <c r="H64" t="s">
-        <v>484</v>
-      </c>
-      <c r="I64" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B65" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E65" t="s">
+        <v>487</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>386</v>
+      </c>
+      <c r="H65" t="s">
         <v>489</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>490</v>
-      </c>
-      <c r="G65" t="s">
-        <v>388</v>
-      </c>
-      <c r="H65" t="s">
-        <v>491</v>
-      </c>
-      <c r="I65" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C66" t="s">
         <v>225</v>
       </c>
       <c r="E66" t="s">
+        <v>495</v>
+      </c>
+      <c r="F66" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" t="s">
+        <v>573</v>
+      </c>
+      <c r="H66" t="s">
         <v>497</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>498</v>
-      </c>
-      <c r="G66" t="s">
-        <v>575</v>
-      </c>
-      <c r="H66" t="s">
-        <v>499</v>
-      </c>
-      <c r="I66" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" t="s">
+        <v>391</v>
+      </c>
+      <c r="E67" t="s">
         <v>502</v>
       </c>
-      <c r="C67" t="s">
-        <v>392</v>
-      </c>
-      <c r="D67" t="s">
-        <v>393</v>
-      </c>
-      <c r="E67" t="s">
-        <v>504</v>
-      </c>
       <c r="F67" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G67" t="s">
         <v>58</v>
       </c>
       <c r="H67" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I67" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B68" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C68" t="s">
         <v>225</v>
@@ -15280,312 +15283,312 @@
         <v>375</v>
       </c>
       <c r="E68" t="s">
+        <v>508</v>
+      </c>
+      <c r="F68" t="s">
+        <v>404</v>
+      </c>
+      <c r="G68" t="s">
+        <v>386</v>
+      </c>
+      <c r="H68" t="s">
+        <v>509</v>
+      </c>
+      <c r="I68" t="s">
         <v>510</v>
-      </c>
-      <c r="F68" t="s">
-        <v>406</v>
-      </c>
-      <c r="G68" t="s">
-        <v>388</v>
-      </c>
-      <c r="H68" t="s">
-        <v>511</v>
-      </c>
-      <c r="I68" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B69" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" t="s">
+        <v>403</v>
+      </c>
+      <c r="E69" t="s">
         <v>514</v>
       </c>
-      <c r="C69" t="s">
-        <v>392</v>
-      </c>
-      <c r="D69" t="s">
-        <v>405</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>503</v>
+      </c>
+      <c r="G69" t="s">
+        <v>386</v>
+      </c>
+      <c r="H69" t="s">
+        <v>515</v>
+      </c>
+      <c r="I69" t="s">
         <v>516</v>
-      </c>
-      <c r="F69" t="s">
-        <v>505</v>
-      </c>
-      <c r="G69" t="s">
-        <v>388</v>
-      </c>
-      <c r="H69" t="s">
-        <v>517</v>
-      </c>
-      <c r="I69" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B70" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D70" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E70" t="s">
+        <v>521</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>386</v>
+      </c>
+      <c r="H70" t="s">
         <v>523</v>
       </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>524</v>
-      </c>
-      <c r="G70" t="s">
-        <v>388</v>
-      </c>
-      <c r="H70" t="s">
-        <v>525</v>
-      </c>
-      <c r="I70" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C71" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E71" t="s">
+        <v>529</v>
+      </c>
+      <c r="F71" t="s">
+        <v>530</v>
+      </c>
+      <c r="G71" t="s">
+        <v>386</v>
+      </c>
+      <c r="H71" t="s">
         <v>531</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>532</v>
-      </c>
-      <c r="G71" t="s">
-        <v>388</v>
-      </c>
-      <c r="H71" t="s">
-        <v>533</v>
-      </c>
-      <c r="I71" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C72" t="s">
         <v>225</v>
       </c>
       <c r="E72" t="s">
+        <v>536</v>
+      </c>
+      <c r="F72" t="s">
+        <v>537</v>
+      </c>
+      <c r="G72" t="s">
+        <v>386</v>
+      </c>
+      <c r="H72" t="s">
         <v>538</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>539</v>
-      </c>
-      <c r="G72" t="s">
-        <v>388</v>
-      </c>
-      <c r="H72" t="s">
-        <v>540</v>
-      </c>
-      <c r="I72" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B73" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D73" t="s">
+        <v>403</v>
+      </c>
+      <c r="E73" t="s">
         <v>543</v>
       </c>
-      <c r="C73" t="s">
-        <v>392</v>
-      </c>
-      <c r="D73" t="s">
-        <v>405</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
+        <v>544</v>
+      </c>
+      <c r="H73" t="s">
         <v>545</v>
       </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
         <v>546</v>
-      </c>
-      <c r="H73" t="s">
-        <v>547</v>
-      </c>
-      <c r="I73" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B74" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C74" t="s">
         <v>225</v>
       </c>
       <c r="E74" t="s">
+        <v>549</v>
+      </c>
+      <c r="F74" t="s">
+        <v>550</v>
+      </c>
+      <c r="G74" t="s">
+        <v>588</v>
+      </c>
+      <c r="H74" t="s">
         <v>551</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>552</v>
-      </c>
-      <c r="G74" t="s">
-        <v>590</v>
-      </c>
-      <c r="H74" t="s">
-        <v>553</v>
-      </c>
-      <c r="I74" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B75" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C75" t="s">
         <v>225</v>
       </c>
       <c r="E75" t="s">
+        <v>556</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" t="s">
+        <v>386</v>
+      </c>
+      <c r="H75" t="s">
         <v>558</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>559</v>
-      </c>
-      <c r="G75" t="s">
-        <v>388</v>
-      </c>
-      <c r="H75" t="s">
-        <v>560</v>
-      </c>
-      <c r="I75" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B76" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C76" t="s">
         <v>225</v>
       </c>
       <c r="E76" t="s">
+        <v>563</v>
+      </c>
+      <c r="F76" t="s">
+        <v>564</v>
+      </c>
+      <c r="G76" t="s">
+        <v>588</v>
+      </c>
+      <c r="H76" t="s">
         <v>565</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>566</v>
-      </c>
-      <c r="G76" t="s">
-        <v>590</v>
-      </c>
-      <c r="H76" t="s">
-        <v>567</v>
-      </c>
-      <c r="I76" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B78" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C78" t="s">
         <v>225</v>
       </c>
       <c r="E78" t="s">
+        <v>579</v>
+      </c>
+      <c r="F78" t="s">
+        <v>580</v>
+      </c>
+      <c r="H78" t="s">
         <v>581</v>
       </c>
-      <c r="F78" t="s">
-        <v>582</v>
-      </c>
-      <c r="H78" t="s">
-        <v>583</v>
-      </c>
       <c r="I78" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J79" s="3"/>
     </row>
